--- a/Nr.29-AGR/pre-release 01/List of controls .xlsx
+++ b/Nr.29-AGR/pre-release 01/List of controls .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\CTIF\Nr.29-AGR\pre-release 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C46E6D8-D88C-46A0-B23E-E9E2D21D96C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01120FC7-213C-4A70-9B8E-CB3A2E12E91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -683,13 +683,13 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="90.42578125" customWidth="1"/>
+    <col min="2" max="2" width="143.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,16 +735,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
